--- a/Images and Sounds/WP Kneeboard List.xlsx
+++ b/Images and Sounds/WP Kneeboard List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Saved Games\VFA-192 Golden Dragons\Syria_Training_Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\Saved Games\VFA-192 Golden Dragons\Syria_Training_Map\Images and Sounds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>WP #</t>
   </si>
@@ -227,9 +227,6 @@
     <t>36 S TB 051 162</t>
   </si>
   <si>
-    <t>36 S XC 893 058</t>
-  </si>
-  <si>
     <t>37 S BT 420 076</t>
   </si>
   <si>
@@ -264,6 +261,18 @@
   </si>
   <si>
     <t>36 S VE 948 109</t>
+  </si>
+  <si>
+    <t>WP #2</t>
+  </si>
+  <si>
+    <t>NAME3</t>
+  </si>
+  <si>
+    <t>GRID4</t>
+  </si>
+  <si>
+    <t>36 S YD 362 300</t>
   </si>
 </sst>
 </file>
@@ -317,7 +326,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -334,6 +343,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -353,6 +363,23 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -367,11 +394,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C41" totalsRowShown="0" headerRowDxfId="0">
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="2">
+  <tableColumns count="6">
     <tableColumn id="1" name="WP #" dataDxfId="1"/>
     <tableColumn id="2" name="NAME"/>
     <tableColumn id="3" name="GRID"/>
+    <tableColumn id="4" name="WP #2" dataDxfId="0"/>
+    <tableColumn id="5" name="NAME3"/>
+    <tableColumn id="6" name="GRID4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +681,12 @@
     <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +696,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -674,8 +716,17 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -685,8 +736,17 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -696,8 +756,17 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -707,8 +776,17 @@
       <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -718,8 +796,17 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -729,8 +816,17 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -740,8 +836,17 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -751,8 +856,17 @@
       <c r="C9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -762,8 +876,17 @@
       <c r="C10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -773,8 +896,17 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -784,8 +916,17 @@
       <c r="C12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -795,8 +936,17 @@
       <c r="C13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -806,8 +956,17 @@
       <c r="C14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -817,8 +976,17 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -828,8 +996,17 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -839,8 +1016,17 @@
       <c r="C17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -850,8 +1036,17 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -861,8 +1056,17 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -872,8 +1076,17 @@
       <c r="C20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1">
+        <v>39</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -883,225 +1096,14 @@
       <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D21" s="1">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Images and Sounds/WP Kneeboard List.xlsx
+++ b/Images and Sounds/WP Kneeboard List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>WP #</t>
   </si>
@@ -273,13 +273,19 @@
   </si>
   <si>
     <t>36 S YD 362 300</t>
+  </si>
+  <si>
+    <t>BVR RANGE</t>
+  </si>
+  <si>
+    <t>36 S UD 300 000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +299,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,12 +329,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="2">
   <tableColumns count="6">
     <tableColumn id="1" name="WP #" dataDxfId="1"/>
     <tableColumn id="2" name="NAME"/>
@@ -670,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,6 +1122,18 @@
         <v>78</v>
       </c>
     </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="D22" s="3">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
